--- a/biology/Médecine/Signe_de_Romberg/Signe_de_Romberg.xlsx
+++ b/biology/Médecine/Signe_de_Romberg/Signe_de_Romberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le signe de Romberg est un signe explorant la sensibilité proprioceptive (c'est-à-dire la sensibilité profonde, qui renseigne sur la position spatiale de chaque membre par rapport aux autres) et l'équilibre. On doit sa description au neurologue allemand Moritz Heinrich Romberg[1] (1795-1873).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signe de Romberg est un signe explorant la sensibilité proprioceptive (c'est-à-dire la sensibilité profonde, qui renseigne sur la position spatiale de chaque membre par rapport aux autres) et l'équilibre. On doit sa description au neurologue allemand Moritz Heinrich Romberg (1795-1873).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le patient doit se tenir debout, talons joints, bras tendus, puis fermer les yeux. On évalue alors la capacité du patient à maintenir sa posture. S'il ne parvient pas à rester stable, on parle d'ataxie statique.
 On peut observer trois cas :
@@ -547,16 +561,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ataxie vestibulaire
-On parle de syndrome vestibulaire :
+          <t>Ataxie vestibulaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On parle de syndrome vestibulaire :
 Atteinte centrale : il s'agit d'une lésion des noyaux vestibulaires, qui ne s'accompagne généralement pas de troubles de l'audition
-Atteinte périphérique : c'est une atteinte du labyrinthe postérieur ou du nerf VIII qui peut s'accompagner (du fait de la proximité entre les structures périphériques auditives et le système vestibulaire périphérique) de troubles de l'audition.
-Ataxie proprioceptive
-Atteinte périphérique : lésion des fibres sensitives (fibres de type Ia, Ib ou II de la classification de Lloyd) proprioceptives
+Atteinte périphérique : c'est une atteinte du labyrinthe postérieur ou du nerf VIII qui peut s'accompagner (du fait de la proximité entre les structures périphériques auditives et le système vestibulaire périphérique) de troubles de l'audition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Signe_de_Romberg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Signe_de_Romberg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Étiologies</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ataxie proprioceptive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atteinte périphérique : lésion des fibres sensitives (fibres de type Ia, Ib ou II de la classification de Lloyd) proprioceptives
 Atteinte centrale : lésion des cordons postérieurs de la moelle, du lemniscus médial ou du gyrus post-central
 Un diabète, la maladie de Biermer, le syndrome paranéoplasique avec anticorps anti-Hu essentiellement satellite d’un cancer anaplasique à petites cellules du poumon, les neuropathies inflammatoires (IgM monoclonale, polyradiculonévrites) sont les principales causes.
-Ataxie cérébelleuse
-Dans le cas d'un signe de Romberg non aggravé par la fermeture des yeux, on parle d'un syndrome cérébelleux statique qui est caractéristique d'une atteinte de la portion médiane du cervelet : le vermis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Signe_de_Romberg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Signe_de_Romberg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étiologies</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ataxie cérébelleuse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas d'un signe de Romberg non aggravé par la fermeture des yeux, on parle d'un syndrome cérébelleux statique qui est caractéristique d'une atteinte de la portion médiane du cervelet : le vermis.
 Les principales étiologies de ce groupe sont l’alcoolisme, la sclérose en plaques, un accident vasculaire cérébral, une ataxie cérébelleuse héréditaire, une tumeur, un syndrome paranéoplasique (syndrome des anticorps anti-Yo chez la femme, le plus souvent lié à un cancer de l’ovaire), la maladie de Creutzfeldt-Jakob.
 </t>
         </is>
